--- a/0_Project/0_Yumemi/Document/toYumemi/2018_0905_V3_FFWW資料確認チェック表_安齋追記.xlsx
+++ b/0_Project/0_Yumemi/Document/toYumemi/2018_0905_V3_FFWW資料確認チェック表_安齋追記.xlsx
@@ -5,11 +5,11 @@
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/anzaitakayuki/Documents/01_Project/0_Project/0_Yumemi/Document/toYumemi/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/anzaitakayuki/Documents/00_Project_Item/0_Project/0_Yumemi/Document/toYumemi/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2446,7 +2446,7 @@
   <dimension ref="B1:E85"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultRowHeight="16" x14ac:dyDescent="0.3"/>
@@ -2456,9 +2456,9 @@
     <col min="3" max="3" width="6.42578125" style="3" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="60.42578125" style="3" customWidth="1"/>
     <col min="5" max="5" width="68.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" style="3"/>
+    <col min="6" max="6" width="9.28515625" style="3"/>
     <col min="7" max="7" width="31.28515625" style="3" customWidth="1"/>
-    <col min="8" max="16384" width="12.7109375" style="3"/>
+    <col min="8" max="16384" width="9.28515625" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:5" x14ac:dyDescent="0.3">

--- a/0_Project/0_Yumemi/Document/toYumemi/2018_0905_V3_FFWW資料確認チェック表_安齋追記.xlsx
+++ b/0_Project/0_Yumemi/Document/toYumemi/2018_0905_V3_FFWW資料確認チェック表_安齋追記.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="178">
   <si>
     <t xml:space="preserve">FFWW資料確認表          </t>
   </si>
@@ -1332,6 +1332,138 @@
   </si>
   <si>
     <t>大日程表.pngと内容同一</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>20180604_定期周知JSONとCAN情報のマッピング_ゆめみ衣川_確認.xlsx</t>
+    <rPh sb="9" eb="13">
+      <t>テイキシュウチ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ジョウホウノ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>キヌガワ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>カクニｎ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AndroidSampleApp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>EAPSampleApp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>HUBELib外部IF仕様書_コーチングアプリ向け.xlsx</t>
+    <rPh sb="7" eb="9">
+      <t>ガイブ</t>
+    </rPh>
+    <rPh sb="11" eb="14">
+      <t>シヨウショ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>ムケ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>VE通信プロトコル検討_コーチングアプリ向け.xlsx</t>
+    <rPh sb="2" eb="4">
+      <t>ツウシン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ケントウ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>ムケ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スマホアプリ提供向け車両データ仕様書(VE_EAP共通)_コーチングアプリ向け.xlsx</t>
+    <rPh sb="6" eb="8">
+      <t>テイキョウ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ムケ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>シャリョウデータ</t>
+    </rPh>
+    <rPh sb="15" eb="18">
+      <t>シヨウショ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>キョウツウ</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>ムケ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>以上計・準正常系HUテスト用MDアプリ昨日仕様書_コーチングアプリ向け.xlsx</t>
+    <rPh sb="0" eb="3">
+      <t>イジョウケイ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ジュン</t>
+    </rPh>
+    <rPh sb="5" eb="8">
+      <t>セイジョウケイ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ヨウ</t>
+    </rPh>
+    <rPh sb="19" eb="24">
+      <t>キノウシヨウショ</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>ムケ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>検証用_アクセスキー_アクセス制御リスト_コーチングアプリ向け.xlsx</t>
+    <rPh sb="0" eb="3">
+      <t>ケンショウヨウ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>セイギョリスト</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>ムケ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Androidサンプルアプリ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>iOSサンプルアプリ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CANalyzer CAN信号(B)内容説明</t>
+    <rPh sb="13" eb="15">
+      <t>シンゴウ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>セツメイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>表紙 / 変更履歴 / Lib使用にあたり / 外部関数一覧 / 外部関数 / 各種車両データ設定詳細 / 定数定義 / シーケンスイメージ / 補足 / (未使用)現在AUDIO情報設定詳細</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1430,7 +1562,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="33">
+  <borders count="37">
     <border>
       <left/>
       <right/>
@@ -1845,6 +1977,56 @@
       <top style="thin">
         <color auto="1"/>
       </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
       <bottom style="medium">
         <color auto="1"/>
       </bottom>
@@ -1916,7 +2098,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2103,6 +2285,30 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="63">
@@ -2443,22 +2649,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:E85"/>
+  <dimension ref="B1:E93"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultRowHeight="16" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="1.7109375" style="3" customWidth="1"/>
-    <col min="2" max="2" width="40" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="48.7109375" style="3" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="6.42578125" style="3" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="60.42578125" style="3" customWidth="1"/>
     <col min="5" max="5" width="68.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.28515625" style="3"/>
+    <col min="6" max="6" width="12.7109375" style="3"/>
     <col min="7" max="7" width="31.28515625" style="3" customWidth="1"/>
-    <col min="8" max="16384" width="9.28515625" style="3"/>
+    <col min="8" max="16384" width="12.7109375" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:5" x14ac:dyDescent="0.3">
@@ -2915,483 +3121,566 @@
         <v>66</v>
       </c>
     </row>
-    <row r="43" spans="2:5" ht="17" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B43" s="16" t="s">
+    <row r="43" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B43" s="67" t="s">
         <v>32</v>
       </c>
-      <c r="C43" s="53" t="s">
+      <c r="C43" s="55" t="s">
         <v>69</v>
       </c>
-      <c r="D43" s="22" t="s">
+      <c r="D43" s="68" t="s">
         <v>134</v>
       </c>
-      <c r="E43" s="18" t="s">
+      <c r="E43" s="69" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="44" spans="2:5" ht="17" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B44" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="C44" s="49"/>
-      <c r="D44" s="9"/>
-      <c r="E44" s="10"/>
-    </row>
-    <row r="45" spans="2:5" ht="48" x14ac:dyDescent="0.3">
-      <c r="B45" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="C45" s="54" t="s">
-        <v>69</v>
-      </c>
-      <c r="D45" s="24" t="s">
-        <v>148</v>
-      </c>
-      <c r="E45" s="13" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="46" spans="2:5" ht="32" x14ac:dyDescent="0.3">
-      <c r="B46" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="C46" s="55" t="s">
-        <v>69</v>
-      </c>
-      <c r="D46" s="25" t="s">
-        <v>149</v>
-      </c>
-      <c r="E46" s="15" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="47" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B47" s="19" t="s">
-        <v>36</v>
+    <row r="44" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B44" s="67" t="s">
+        <v>166</v>
+      </c>
+      <c r="C44" s="55" t="s">
+        <v>55</v>
+      </c>
+      <c r="D44" s="68" t="s">
+        <v>176</v>
+      </c>
+      <c r="E44" s="69"/>
+    </row>
+    <row r="45" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B45" s="70" t="s">
+        <v>167</v>
+      </c>
+      <c r="C45" s="55"/>
+      <c r="D45" s="68" t="s">
+        <v>174</v>
+      </c>
+      <c r="E45" s="69"/>
+    </row>
+    <row r="46" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B46" s="70" t="s">
+        <v>168</v>
+      </c>
+      <c r="C46" s="55"/>
+      <c r="D46" s="68" t="s">
+        <v>175</v>
+      </c>
+      <c r="E46" s="69"/>
+    </row>
+    <row r="47" spans="2:5" ht="32" x14ac:dyDescent="0.3">
+      <c r="B47" s="67" t="s">
+        <v>169</v>
       </c>
       <c r="C47" s="55" t="s">
-        <v>58</v>
-      </c>
-      <c r="D47" s="25" t="s">
-        <v>127</v>
-      </c>
-      <c r="E47" s="15" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="48" spans="2:5" ht="64" x14ac:dyDescent="0.3">
-      <c r="B48" s="14" t="s">
-        <v>37</v>
+        <v>55</v>
+      </c>
+      <c r="D47" s="68" t="s">
+        <v>177</v>
+      </c>
+      <c r="E47" s="69"/>
+    </row>
+    <row r="48" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B48" s="67" t="s">
+        <v>170</v>
       </c>
       <c r="C48" s="55" t="s">
-        <v>69</v>
-      </c>
-      <c r="D48" s="25" t="s">
-        <v>161</v>
-      </c>
-      <c r="E48" s="15" t="s">
-        <v>72</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="E48" s="69"/>
     </row>
     <row r="49" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B49" s="19" t="s">
-        <v>38</v>
+      <c r="B49" s="67" t="s">
+        <v>171</v>
       </c>
       <c r="C49" s="55" t="s">
-        <v>58</v>
-      </c>
-      <c r="D49" s="25" t="s">
-        <v>135</v>
-      </c>
-      <c r="E49" s="15" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="50" spans="2:5" ht="112" x14ac:dyDescent="0.3">
-      <c r="B50" s="14" t="s">
-        <v>39</v>
+        <v>55</v>
+      </c>
+      <c r="D49" s="68"/>
+      <c r="E49" s="69"/>
+    </row>
+    <row r="50" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B50" s="67" t="s">
+        <v>172</v>
       </c>
       <c r="C50" s="55" t="s">
         <v>55</v>
       </c>
-      <c r="D50" s="25" t="s">
-        <v>162</v>
-      </c>
-      <c r="E50" s="15" t="s">
-        <v>74</v>
-      </c>
+      <c r="D50" s="68"/>
+      <c r="E50" s="69"/>
     </row>
     <row r="51" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B51" s="19" t="s">
-        <v>40</v>
+      <c r="B51" s="67" t="s">
+        <v>173</v>
       </c>
       <c r="C51" s="55" t="s">
-        <v>58</v>
-      </c>
-      <c r="D51" s="25" t="s">
-        <v>136</v>
-      </c>
-      <c r="E51" s="15" t="s">
-        <v>73</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="D51" s="68"/>
+      <c r="E51" s="69"/>
     </row>
     <row r="52" spans="2:5" ht="17" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B52" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="C52" s="53" t="s">
-        <v>58</v>
-      </c>
-      <c r="D52" s="22" t="s">
-        <v>136</v>
-      </c>
-      <c r="E52" s="18" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="53" spans="2:5" ht="17" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B53" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="C53" s="49"/>
-      <c r="D53" s="9"/>
-      <c r="E53" s="10"/>
+      <c r="B52" s="63" t="s">
+        <v>33</v>
+      </c>
+      <c r="C52" s="64"/>
+      <c r="D52" s="65"/>
+      <c r="E52" s="66"/>
+    </row>
+    <row r="53" spans="2:5" ht="48" x14ac:dyDescent="0.3">
+      <c r="B53" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C53" s="54" t="s">
+        <v>69</v>
+      </c>
+      <c r="D53" s="24" t="s">
+        <v>148</v>
+      </c>
+      <c r="E53" s="13" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="54" spans="2:5" ht="32" x14ac:dyDescent="0.3">
-      <c r="B54" s="26" t="s">
-        <v>155</v>
-      </c>
-      <c r="C54" s="54" t="s">
-        <v>76</v>
-      </c>
-      <c r="D54" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="E54" s="13" t="s">
-        <v>77</v>
+      <c r="B54" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="C54" s="55" t="s">
+        <v>69</v>
+      </c>
+      <c r="D54" s="25" t="s">
+        <v>149</v>
+      </c>
+      <c r="E54" s="15" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="55" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B55" s="19" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="C55" s="55" t="s">
         <v>58</v>
       </c>
-      <c r="D55" s="2" t="s">
+      <c r="D55" s="25" t="s">
+        <v>127</v>
+      </c>
+      <c r="E55" s="15" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="56" spans="2:5" ht="64" x14ac:dyDescent="0.3">
+      <c r="B56" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="C56" s="55" t="s">
+        <v>69</v>
+      </c>
+      <c r="D56" s="25" t="s">
+        <v>161</v>
+      </c>
+      <c r="E56" s="15" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="57" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B57" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="C57" s="55" t="s">
+        <v>58</v>
+      </c>
+      <c r="D57" s="25" t="s">
+        <v>135</v>
+      </c>
+      <c r="E57" s="15" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="58" spans="2:5" ht="112" x14ac:dyDescent="0.3">
+      <c r="B58" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="C58" s="55" t="s">
+        <v>55</v>
+      </c>
+      <c r="D58" s="25" t="s">
+        <v>162</v>
+      </c>
+      <c r="E58" s="15" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="59" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B59" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="C59" s="55" t="s">
+        <v>58</v>
+      </c>
+      <c r="D59" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="E59" s="15" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="60" spans="2:5" ht="17" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B60" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="C60" s="53" t="s">
+        <v>58</v>
+      </c>
+      <c r="D60" s="22" t="s">
+        <v>136</v>
+      </c>
+      <c r="E60" s="18" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="61" spans="2:5" ht="17" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B61" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="C61" s="49"/>
+      <c r="D61" s="9"/>
+      <c r="E61" s="10"/>
+    </row>
+    <row r="62" spans="2:5" ht="32" x14ac:dyDescent="0.3">
+      <c r="B62" s="26" t="s">
+        <v>155</v>
+      </c>
+      <c r="C62" s="54" t="s">
+        <v>76</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E62" s="13" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="63" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B63" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="C63" s="55" t="s">
+        <v>58</v>
+      </c>
+      <c r="D63" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="E55" s="15" t="s">
+      <c r="E63" s="15" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="56" spans="2:5" ht="17" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B56" s="21" t="s">
+    <row r="64" spans="2:5" ht="17" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B64" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="C56" s="53" t="s">
+      <c r="C64" s="53" t="s">
         <v>58</v>
       </c>
-      <c r="D56" s="22"/>
-      <c r="E56" s="18" t="s">
+      <c r="D64" s="22"/>
+      <c r="E64" s="18" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="57" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B57" s="27" t="s">
+    <row r="65" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B65" s="27" t="s">
         <v>113</v>
       </c>
-      <c r="C57" s="56"/>
-      <c r="D57" s="28"/>
-      <c r="E57" s="29"/>
-    </row>
-    <row r="58" spans="2:5" ht="64" x14ac:dyDescent="0.3">
-      <c r="B58" s="14" t="s">
+      <c r="C65" s="56"/>
+      <c r="D65" s="28"/>
+      <c r="E65" s="29"/>
+    </row>
+    <row r="66" spans="2:5" ht="64" x14ac:dyDescent="0.3">
+      <c r="B66" s="14" t="s">
         <v>102</v>
       </c>
-      <c r="C58" s="55" t="s">
+      <c r="C66" s="55" t="s">
         <v>107</v>
       </c>
-      <c r="D58" s="2" t="s">
+      <c r="D66" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="E58" s="30" t="s">
+      <c r="E66" s="30" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="59" spans="2:5" ht="32" x14ac:dyDescent="0.3">
-      <c r="B59" s="14" t="s">
+    <row r="67" spans="2:5" ht="32" x14ac:dyDescent="0.3">
+      <c r="B67" s="14" t="s">
         <v>103</v>
       </c>
-      <c r="C59" s="55" t="s">
+      <c r="C67" s="55" t="s">
         <v>108</v>
       </c>
-      <c r="D59" s="2" t="s">
+      <c r="D67" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="E59" s="30" t="s">
+      <c r="E67" s="30" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="60" spans="2:5" ht="32" x14ac:dyDescent="0.3">
-      <c r="B60" s="14" t="s">
+    <row r="68" spans="2:5" ht="32" x14ac:dyDescent="0.3">
+      <c r="B68" s="14" t="s">
         <v>104</v>
       </c>
-      <c r="C60" s="55" t="s">
+      <c r="C68" s="55" t="s">
         <v>108</v>
       </c>
-      <c r="D60" s="2" t="s">
+      <c r="D68" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="E60" s="15" t="s">
+      <c r="E68" s="15" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="61" spans="2:5" ht="32" x14ac:dyDescent="0.3">
-      <c r="B61" s="14" t="s">
+    <row r="69" spans="2:5" ht="32" x14ac:dyDescent="0.3">
+      <c r="B69" s="14" t="s">
         <v>105</v>
       </c>
-      <c r="C61" s="55" t="s">
+      <c r="C69" s="55" t="s">
         <v>108</v>
       </c>
-      <c r="D61" s="2" t="s">
+      <c r="D69" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="E61" s="30" t="s">
+      <c r="E69" s="30" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="62" spans="2:5" ht="17" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B62" s="31" t="s">
+    <row r="70" spans="2:5" ht="17" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B70" s="31" t="s">
         <v>106</v>
       </c>
-      <c r="C62" s="57" t="s">
+      <c r="C70" s="57" t="s">
         <v>108</v>
       </c>
-      <c r="D62" s="2" t="s">
+      <c r="D70" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="E62" s="32" t="s">
+      <c r="E70" s="32" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="63" spans="2:5" ht="17" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B63" s="8" t="s">
+    <row r="71" spans="2:5" ht="17" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B71" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="C63" s="49"/>
-      <c r="D63" s="9"/>
-      <c r="E63" s="10"/>
-    </row>
-    <row r="64" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B64" s="11" t="s">
+      <c r="C71" s="49"/>
+      <c r="D71" s="9"/>
+      <c r="E71" s="10"/>
+    </row>
+    <row r="72" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B72" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="C64" s="50"/>
-      <c r="D64" s="12"/>
-      <c r="E64" s="13"/>
-    </row>
-    <row r="65" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B65" s="14" t="s">
-        <v>79</v>
-      </c>
-      <c r="C65" s="51" t="s">
-        <v>68</v>
-      </c>
-      <c r="D65" s="2"/>
-      <c r="E65" s="15" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="66" spans="2:5" ht="32" x14ac:dyDescent="0.3">
-      <c r="B66" s="33" t="s">
-        <v>156</v>
-      </c>
-      <c r="C66" s="51" t="s">
-        <v>68</v>
-      </c>
-      <c r="D66" s="34"/>
-      <c r="E66" s="15" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="67" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B67" s="14" t="s">
-        <v>82</v>
-      </c>
-      <c r="C67" s="51" t="s">
-        <v>68</v>
-      </c>
-      <c r="D67" s="2"/>
-      <c r="E67" s="15" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="68" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B68" s="19" t="s">
-        <v>84</v>
-      </c>
-      <c r="C68" s="55" t="s">
-        <v>58</v>
-      </c>
-      <c r="D68" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="E68" s="35" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="69" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B69" s="19" t="s">
-        <v>88</v>
-      </c>
-      <c r="C69" s="55" t="s">
-        <v>58</v>
-      </c>
-      <c r="D69" s="25"/>
-      <c r="E69" s="15" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="70" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B70" s="14" t="s">
-        <v>89</v>
-      </c>
-      <c r="C70" s="51" t="s">
-        <v>68</v>
-      </c>
-      <c r="D70" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="E70" s="15" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="71" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B71" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="C71" s="51"/>
-      <c r="D71" s="2"/>
-      <c r="E71" s="15"/>
-    </row>
-    <row r="72" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B72" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="C72" s="51" t="s">
-        <v>68</v>
-      </c>
-      <c r="D72" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="E72" s="15" t="s">
-        <v>92</v>
-      </c>
+      <c r="C72" s="50"/>
+      <c r="D72" s="12"/>
+      <c r="E72" s="13"/>
     </row>
     <row r="73" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B73" s="14" t="s">
-        <v>49</v>
+        <v>79</v>
       </c>
       <c r="C73" s="51" t="s">
         <v>68</v>
       </c>
-      <c r="D73" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="E73" s="36" t="s">
-        <v>100</v>
+      <c r="D73" s="2"/>
+      <c r="E73" s="15" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="74" spans="2:5" ht="32" x14ac:dyDescent="0.3">
-      <c r="B74" s="14" t="s">
-        <v>50</v>
+      <c r="B74" s="33" t="s">
+        <v>156</v>
       </c>
       <c r="C74" s="51" t="s">
         <v>68</v>
       </c>
-      <c r="D74" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="E74" s="36" t="s">
-        <v>101</v>
+      <c r="D74" s="34"/>
+      <c r="E74" s="15" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="75" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B75" s="14" t="s">
-        <v>51</v>
+        <v>82</v>
       </c>
       <c r="C75" s="51" t="s">
         <v>68</v>
       </c>
-      <c r="D75" s="2" t="s">
+      <c r="D75" s="2"/>
+      <c r="E75" s="15" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="76" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B76" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="C76" s="55" t="s">
+        <v>58</v>
+      </c>
+      <c r="D76" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E76" s="35" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="77" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B77" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="C77" s="55" t="s">
+        <v>58</v>
+      </c>
+      <c r="D77" s="25"/>
+      <c r="E77" s="15" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="78" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B78" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="C78" s="51" t="s">
+        <v>68</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="E78" s="15" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="79" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B79" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="C79" s="51"/>
+      <c r="D79" s="2"/>
+      <c r="E79" s="15"/>
+    </row>
+    <row r="80" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B80" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="C80" s="51" t="s">
+        <v>68</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="E80" s="15" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="81" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B81" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="C81" s="51" t="s">
+        <v>68</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="E81" s="36" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="82" spans="2:5" ht="32" x14ac:dyDescent="0.3">
+      <c r="B82" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="C82" s="51" t="s">
+        <v>68</v>
+      </c>
+      <c r="D82" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="E82" s="36" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="83" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B83" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="C83" s="51" t="s">
+        <v>68</v>
+      </c>
+      <c r="D83" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="E75" s="15" t="s">
+      <c r="E83" s="15" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="76" spans="2:5" ht="17" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B76" s="37" t="s">
+    <row r="84" spans="2:5" ht="17" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B84" s="37" t="s">
         <v>52</v>
       </c>
-      <c r="C76" s="58" t="s">
+      <c r="C84" s="58" t="s">
         <v>78</v>
       </c>
-      <c r="D76" s="38" t="s">
+      <c r="D84" s="38" t="s">
         <v>146</v>
       </c>
-      <c r="E76" s="32" t="s">
+      <c r="E84" s="32" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="77" spans="2:5" ht="17" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C77" s="59"/>
-      <c r="D77" s="34"/>
-    </row>
-    <row r="78" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B78" s="39" t="s">
-        <v>110</v>
-      </c>
-      <c r="C78" s="60"/>
-      <c r="D78" s="40"/>
-      <c r="E78" s="41"/>
-    </row>
-    <row r="79" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B79" s="42" t="s">
-        <v>109</v>
-      </c>
-      <c r="C79" s="61"/>
-      <c r="D79" s="43"/>
-      <c r="E79" s="44"/>
-    </row>
-    <row r="80" spans="2:5" ht="33" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B80" s="45" t="s">
-        <v>151</v>
-      </c>
-      <c r="C80" s="62"/>
-      <c r="D80" s="46"/>
-      <c r="E80" s="47"/>
-    </row>
-    <row r="81" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C81" s="59"/>
-      <c r="D81" s="34"/>
-    </row>
-    <row r="82" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C82" s="59"/>
-      <c r="D82" s="34"/>
-    </row>
-    <row r="83" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C83" s="59"/>
-      <c r="D83" s="34"/>
-    </row>
-    <row r="84" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C84" s="59"/>
-      <c r="D84" s="34"/>
-    </row>
-    <row r="85" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="85" spans="2:5" ht="17" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C85" s="59"/>
       <c r="D85" s="34"/>
+    </row>
+    <row r="86" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B86" s="39" t="s">
+        <v>110</v>
+      </c>
+      <c r="C86" s="60"/>
+      <c r="D86" s="40"/>
+      <c r="E86" s="41"/>
+    </row>
+    <row r="87" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B87" s="42" t="s">
+        <v>109</v>
+      </c>
+      <c r="C87" s="61"/>
+      <c r="D87" s="43"/>
+      <c r="E87" s="44"/>
+    </row>
+    <row r="88" spans="2:5" ht="33" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B88" s="45" t="s">
+        <v>151</v>
+      </c>
+      <c r="C88" s="62"/>
+      <c r="D88" s="46"/>
+      <c r="E88" s="47"/>
+    </row>
+    <row r="89" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C89" s="59"/>
+      <c r="D89" s="34"/>
+    </row>
+    <row r="90" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C90" s="59"/>
+      <c r="D90" s="34"/>
+    </row>
+    <row r="91" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C91" s="59"/>
+      <c r="D91" s="34"/>
+    </row>
+    <row r="92" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C92" s="59"/>
+      <c r="D92" s="34"/>
+    </row>
+    <row r="93" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C93" s="59"/>
+      <c r="D93" s="34"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/0_Project/0_Yumemi/Document/toYumemi/2018_0905_V3_FFWW資料確認チェック表_安齋追記.xlsx
+++ b/0_Project/0_Yumemi/Document/toYumemi/2018_0905_V3_FFWW資料確認チェック表_安齋追記.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="179">
   <si>
     <t xml:space="preserve">FFWW資料確認表          </t>
   </si>
@@ -1465,6 +1465,9 @@
   <si>
     <t>表紙 / 変更履歴 / Lib使用にあたり / 外部関数一覧 / 外部関数 / 各種車両データ設定詳細 / 定数定義 / シーケンスイメージ / 補足 / (未使用)現在AUDIO情報設定詳細</t>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>表紙 / 改版履歴 / 機能概要 / 全体シーケンスイメージ / 通信プロトコル_概要 / 転送データフォーマット(ヘッダ) / 転送データフォーマット(データ,CheckSum) / 転送データ詳細仕様 / 転送データ詳細仕様(MD⇔HU)転送データ詳細仕様(I-AUDIO) / 暗号化検討 / OpenSSLライセンス条項 / OpenSSL脆弱性対応検討 / CheckSum / 双方向、機能検討 / 双方向_全体シーケンス / HU定期通知周期変更 / エアコン温度設定についての注意事項 / その他補足事項 / HU通信開始要求受信可能タイミング / 公開鍵証明書有効期限化 / APK署名チェック</t>
   </si>
 </sst>
 </file>
@@ -2652,7 +2655,7 @@
   <dimension ref="B1:E93"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+      <selection activeCell="D50" sqref="D50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultRowHeight="16" x14ac:dyDescent="0.3"/>
@@ -3179,12 +3182,15 @@
       </c>
       <c r="E47" s="69"/>
     </row>
-    <row r="48" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:5" ht="96" x14ac:dyDescent="0.3">
       <c r="B48" s="67" t="s">
         <v>170</v>
       </c>
       <c r="C48" s="55" t="s">
         <v>55</v>
+      </c>
+      <c r="D48" s="34" t="s">
+        <v>178</v>
       </c>
       <c r="E48" s="69"/>
     </row>
